--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vaibhav Study\Software Testing\Testing Software Files\eclipse-jee-oxygen-R-win32-x86_64\eclipse\MenuMitraApiAutomation\src\test\resources\excelsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\eclipse-workspace\MenuMitra Project\MenumitraAPi\src\test\resources\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE5C09-EBD5-45DC-AB9E-92544227E98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876C03A-C15B-4096-8162-545533FD21A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E5038CF2-0CE6-4D86-93B7-0CB3FCE5B857}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{E5038CF2-0CE6-4D86-93B7-0CB3FCE5B857}"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
     <sheet name="ownerAPI" sheetId="3" r:id="rId2"/>
-    <sheet name="CommonAPITestScenario" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="OwnerAPITestScenario" sheetId="4" r:id="rId5"/>
+    <sheet name="posAPI" sheetId="6" r:id="rId3"/>
+    <sheet name="CommonAPITestScenario" sheetId="2" r:id="rId4"/>
+    <sheet name="PosAPITestScenario" sheetId="5" r:id="rId5"/>
+    <sheet name="OwnerAPITestScenario" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="1657">
   <si>
     <t>post</t>
   </si>
@@ -9283,12 +9284,175 @@
     "outlet_id":"@#"
 }</t>
   </si>
+  <si>
+    <t>https://men4u.xyz/v2/pos/pos_details/3</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "owner_data": {
+            "owner_name": "Heena",
+            "user_id": 3,
+            "role": "manager",
+            "outlet_name": "Bhavani hotel",
+            "outlet_id": 1,
+            "outlet_mobile": "6767679760",
+            "outlet_status": true,
+            "order_number_sequence": "since_opening",
+            "gst": "1",
+            "service_charges": "1",
+            "outlet_upi": "dd@ok",
+            "image": null,
+            "is_open": true,
+            "completed_orders": 0,
+            "active_orders": 0,
+            "today_total_revenue": 0,
+            "outlet_address": "satara, maharashtra"
+        },
+        "outlet_settings": {
+            "style": "blue",
+            "has_dine_in": true,
+            "has_parcel": true,
+            "has_counter": false,
+            "has_delivery": false,
+            "has_drive_through": false,
+            "print_and_save": true,
+            "KOT_and_save": true,
+            "settle": true,
+            "reserve_table": true,
+            "cancel": true,
+            "POS_show_menu_image": true
+        },
+        "user_settings": {
+            "language": null,
+            "theme": null,
+            "font_size": null
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>pos_details</t>
+  </si>
+  <si>
+    <t>{
+    "outlet_id":1,
+    "user_id":2
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "today_paid_orders": 0,
+        "active_orders": 5,
+        "today_total_revenue": 0
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/pos/get_orders_count</t>
+  </si>
+  <si>
+    <t>get_orders_count</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/pos/get_category_for_menu_listview/1</t>
+  </si>
+  <si>
+    <t>{
+    "categorys_list": {
+        "Rice": "Rice",
+        "Gujrati": "Gujrati",
+        "North Indian": "North Indian",
+        "south Indian": "south Indian",
+        "all": "all"
+    }
+}</t>
+  </si>
+  <si>
+    <t>get_category_for_menu_listview</t>
+  </si>
+  <si>
+    <t>valid verify</t>
+  </si>
+  <si>
+    <t>pos_details_001</t>
+  </si>
+  <si>
+    <t>Get POS - Invalid ID</t>
+  </si>
+  <si>
+    <t>Pass a non-existent user ID (e.g., 9999)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>{ "message": "User not found" }</t>
+  </si>
+  <si>
+    <t>Get POS - Invalid Type</t>
+  </si>
+  <si>
+    <t>Pass alphabet instead of number (e.g., /pos_details/abc)</t>
+  </si>
+  <si>
+    <t>{ "error": "Invalid user ID" }</t>
+  </si>
+  <si>
+    <t>Get POS - Missing ID</t>
+  </si>
+  <si>
+    <t>Do not pass user ID in the path</t>
+  </si>
+  <si>
+    <t>{ "error": "Missing required parameter: user_id" }</t>
+  </si>
+  <si>
+    <t>404 or 400</t>
+  </si>
+  <si>
+    <t>Get POS - Invalid URL</t>
+  </si>
+  <si>
+    <t>Hit incorrect endpoint (e.g., /pos_detailss/2)</t>
+  </si>
+  <si>
+    <t>{ "error": "Not Found" }</t>
+  </si>
+  <si>
+    <t>Get POS - Unauthorized</t>
+  </si>
+  <si>
+    <t>Access endpoint without valid authentication token (if any)</t>
+  </si>
+  <si>
+    <t>{ "error": "Unauthorized" }</t>
+  </si>
+  <si>
+    <t>pos_details_002</t>
+  </si>
+  <si>
+    <t>pos_details_003</t>
+  </si>
+  <si>
+    <t>pos_details_004</t>
+  </si>
+  <si>
+    <t>pos_details_005</t>
+  </si>
+  <si>
+    <t>pos_details_006</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9327,6 +9491,18 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9371,7 +9547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9419,6 +9595,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9740,7 +9923,7 @@
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -9751,7 +9934,7 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -9771,7 +9954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="86.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9791,7 +9974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="230.4">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -9811,7 +9994,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="72">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9831,7 +10014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="259.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -9851,7 +10034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="345.6">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -9868,7 +10051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="288" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="288">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -9888,7 +10071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="316.8">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -9905,7 +10088,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="72">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -9925,7 +10108,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="86.4">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -9945,7 +10128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="100.8">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -9965,7 +10148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="409.6">
       <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
@@ -9985,7 +10168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="100.8">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -10005,7 +10188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="72">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -10025,7 +10208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="273.60000000000002">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
@@ -10045,7 +10228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="86.4">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
@@ -10065,7 +10248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="144">
       <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
@@ -10085,7 +10268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="57.6">
       <c r="A18" s="1" t="s">
         <v>209</v>
       </c>
@@ -10101,7 +10284,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="72">
       <c r="A19" s="1" t="s">
         <v>216</v>
       </c>
@@ -10121,7 +10304,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="302.39999999999998">
       <c r="A20" s="1" t="s">
         <v>225</v>
       </c>
@@ -10141,7 +10324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="331.2">
       <c r="A21" s="1" t="s">
         <v>232</v>
       </c>
@@ -10161,7 +10344,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="409.6">
       <c r="A22" s="1" t="s">
         <v>244</v>
       </c>
@@ -10181,7 +10364,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="331.2">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -10201,7 +10384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="86.4">
       <c r="A24" s="1" t="s">
         <v>250</v>
       </c>
@@ -10221,7 +10404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="100.8">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
@@ -10239,7 +10422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="144">
       <c r="A26" s="1" t="s">
         <v>261</v>
       </c>
@@ -10257,7 +10440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="86.4">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
@@ -10277,7 +10460,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="273.60000000000002">
       <c r="A28" s="1" t="s">
         <v>274</v>
       </c>
@@ -10297,7 +10480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="316.8">
       <c r="A29" s="1" t="s">
         <v>280</v>
       </c>
@@ -10317,7 +10500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="360">
       <c r="A30" s="1" t="s">
         <v>288</v>
       </c>
@@ -10337,7 +10520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="409.6">
       <c r="A31" s="1" t="s">
         <v>292</v>
       </c>
@@ -10357,7 +10540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="72">
       <c r="A32" s="1" t="s">
         <v>300</v>
       </c>
@@ -10377,7 +10560,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="316.8">
       <c r="A33" s="1" t="s">
         <v>306</v>
       </c>
@@ -10395,7 +10578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="72">
       <c r="A34" s="1" t="s">
         <v>309</v>
       </c>
@@ -10415,7 +10598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="129.6">
       <c r="A35" s="1" t="s">
         <v>319</v>
       </c>
@@ -10433,7 +10616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="403.2">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -10453,7 +10636,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="409.6">
       <c r="A37" s="1" t="s">
         <v>323</v>
       </c>
@@ -10470,7 +10653,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="409.6">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -10490,7 +10673,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="409.6">
       <c r="A39" s="1" t="s">
         <v>331</v>
       </c>
@@ -10510,7 +10693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="86.4">
       <c r="A40" s="1" t="s">
         <v>335</v>
       </c>
@@ -10530,7 +10713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="409.6">
       <c r="A41" s="1" t="s">
         <v>349</v>
       </c>
@@ -10550,7 +10733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="409.6">
       <c r="A42" s="1" t="s">
         <v>356</v>
       </c>
@@ -10567,7 +10750,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="86.4">
       <c r="A43" s="1" t="s">
         <v>359</v>
       </c>
@@ -10587,7 +10770,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="288" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="288">
       <c r="A44" s="3" t="s">
         <v>367</v>
       </c>
@@ -10607,7 +10790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="158.4">
       <c r="A45" s="1" t="s">
         <v>399</v>
       </c>
@@ -10624,7 +10807,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>378</v>
       </c>
@@ -10638,7 +10821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>382</v>
       </c>
@@ -10652,7 +10835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>386</v>
       </c>
@@ -10663,7 +10846,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="409.6">
       <c r="A49" s="1" t="s">
         <v>388</v>
       </c>
@@ -10683,7 +10866,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>395</v>
       </c>
@@ -10697,7 +10880,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="72">
       <c r="A51" s="1" t="s">
         <v>407</v>
       </c>
@@ -10711,7 +10894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="201.6">
       <c r="A52" s="1" t="s">
         <v>412</v>
       </c>
@@ -10731,7 +10914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="331.2">
       <c r="A53" s="1" t="s">
         <v>421</v>
       </c>
@@ -10748,7 +10931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="409.6">
       <c r="A54" s="1" t="s">
         <v>426</v>
       </c>
@@ -10768,7 +10951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="409.6">
       <c r="A55" t="s">
         <v>430</v>
       </c>
@@ -10788,7 +10971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="331.2">
       <c r="A56" s="1" t="s">
         <v>433</v>
       </c>
@@ -10808,7 +10991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>438</v>
       </c>
@@ -10822,7 +11005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="129.6">
       <c r="A58" s="1" t="s">
         <v>446</v>
       </c>
@@ -10842,7 +11025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="158.4">
       <c r="A59" t="s">
         <v>452</v>
       </c>
@@ -10862,7 +11045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="259.2">
       <c r="A60" s="1" t="s">
         <v>457</v>
       </c>
@@ -10879,7 +11062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="409.6">
       <c r="A61" t="s">
         <v>463</v>
       </c>
@@ -10899,7 +11082,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="72">
       <c r="A62" t="s">
         <v>468</v>
       </c>
@@ -10919,7 +11102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="43.2">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -10936,7 +11119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="244.8">
       <c r="A64" t="s">
         <v>480</v>
       </c>
@@ -10956,7 +11139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="244.8">
       <c r="A65" t="s">
         <v>486</v>
       </c>
@@ -10976,7 +11159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="316.8">
       <c r="A66" t="s">
         <v>509</v>
       </c>
@@ -10996,7 +11179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="409.6">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -11013,7 +11196,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="172.8">
       <c r="A68" t="s">
         <v>500</v>
       </c>
@@ -11033,7 +11216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="216">
       <c r="A69" t="s">
         <v>510</v>
       </c>
@@ -11053,7 +11236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="230.4">
       <c r="A70" t="s">
         <v>514</v>
       </c>
@@ -11073,7 +11256,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="302.39999999999998">
       <c r="A71" t="s">
         <v>519</v>
       </c>
@@ -11090,7 +11273,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="316.8">
       <c r="A72" t="s">
         <v>524</v>
       </c>
@@ -11110,7 +11293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="172.8">
       <c r="A73" t="s">
         <v>528</v>
       </c>
@@ -11130,7 +11313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="172.8">
       <c r="A74" t="s">
         <v>539</v>
       </c>
@@ -11150,7 +11333,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="201.6">
       <c r="A75" t="s">
         <v>544</v>
       </c>
@@ -11170,7 +11353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="273.60000000000002">
       <c r="A76" t="s">
         <v>569</v>
       </c>
@@ -11190,7 +11373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="288" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="288">
       <c r="A77" t="s">
         <v>553</v>
       </c>
@@ -11210,7 +11393,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="86.4">
       <c r="A78" t="s">
         <v>558</v>
       </c>
@@ -11227,7 +11410,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="86.4">
       <c r="A79" t="s">
         <v>571</v>
       </c>
@@ -11247,7 +11430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="259.2">
       <c r="A80" t="s">
         <v>577</v>
       </c>
@@ -11267,7 +11450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="172.8">
       <c r="A81" t="s">
         <v>583</v>
       </c>
@@ -11287,7 +11470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="360">
       <c r="A82" t="s">
         <v>589</v>
       </c>
@@ -11307,7 +11490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="409.6">
       <c r="A83" t="s">
         <v>594</v>
       </c>
@@ -11324,7 +11507,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="115.2">
       <c r="A84" t="s">
         <v>600</v>
       </c>
@@ -11344,7 +11527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="115.2">
       <c r="A85" t="s">
         <v>604</v>
       </c>
@@ -11364,7 +11547,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="259.2">
       <c r="A86" t="s">
         <v>614</v>
       </c>
@@ -11384,7 +11567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="172.8">
       <c r="A87" t="s">
         <v>620</v>
       </c>
@@ -11401,7 +11584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="100.8">
       <c r="A88" t="s">
         <v>625</v>
       </c>
@@ -11421,7 +11604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="100.8">
       <c r="A89" t="s">
         <v>631</v>
       </c>
@@ -11441,7 +11624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="72">
       <c r="A90" t="s">
         <v>637</v>
       </c>
@@ -11461,7 +11644,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="57.6">
       <c r="A91" t="s">
         <v>643</v>
       </c>
@@ -11478,7 +11661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="316.8">
       <c r="A92" t="s">
         <v>652</v>
       </c>
@@ -11498,7 +11681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="57.6">
       <c r="A93" t="s">
         <v>658</v>
       </c>
@@ -11515,7 +11698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="273.60000000000002">
       <c r="A94" t="s">
         <v>708</v>
       </c>
@@ -11535,7 +11718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>668</v>
       </c>
@@ -11549,7 +11732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="129.6">
       <c r="A96" t="s">
         <v>671</v>
       </c>
@@ -11566,7 +11749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="43.2">
       <c r="A97" t="s">
         <v>679</v>
       </c>
@@ -11583,7 +11766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="43.2">
       <c r="A98" t="s">
         <v>683</v>
       </c>
@@ -11600,7 +11783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="72">
       <c r="A99" t="s">
         <v>687</v>
       </c>
@@ -11617,7 +11800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="57.6">
       <c r="A100" t="s">
         <v>692</v>
       </c>
@@ -11634,7 +11817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="43.2">
       <c r="A101" t="s">
         <v>697</v>
       </c>
@@ -11651,7 +11834,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="129.6">
       <c r="A102" t="s">
         <v>702</v>
       </c>
@@ -11668,7 +11851,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="409.6">
       <c r="A103" t="s">
         <v>717</v>
       </c>
@@ -11685,7 +11868,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="409.6">
       <c r="A104" t="s">
         <v>752</v>
       </c>
@@ -11702,7 +11885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="409.6">
       <c r="A105" t="s">
         <v>761</v>
       </c>
@@ -11719,7 +11902,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="43.2">
       <c r="A106" t="s">
         <v>768</v>
       </c>
@@ -11736,7 +11919,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="72">
       <c r="A107" t="s">
         <v>772</v>
       </c>
@@ -11753,7 +11936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>776</v>
       </c>
@@ -11767,7 +11950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="158.4">
       <c r="A109" t="s">
         <v>781</v>
       </c>
@@ -11787,7 +11970,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>787</v>
       </c>
@@ -11801,7 +11984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="230.4">
       <c r="A111" t="s">
         <v>791</v>
       </c>
@@ -11821,7 +12004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="43.2">
       <c r="A112" t="s">
         <v>806</v>
       </c>
@@ -11838,7 +12021,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="43.2">
       <c r="A113" t="s">
         <v>811</v>
       </c>
@@ -11852,7 +12035,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>814</v>
       </c>
@@ -11866,7 +12049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="100.8">
       <c r="A115" t="s">
         <v>818</v>
       </c>
@@ -11883,7 +12066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="43.2">
       <c r="A116" t="s">
         <v>824</v>
       </c>
@@ -11900,7 +12083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="129.6">
       <c r="A117" t="s">
         <v>829</v>
       </c>
@@ -11917,7 +12100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="43.2">
       <c r="A118" t="s">
         <v>834</v>
       </c>
@@ -11934,7 +12117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="115.2">
       <c r="A119" t="s">
         <v>1583</v>
       </c>
@@ -11954,7 +12137,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="230.4">
       <c r="A120" t="s">
         <v>1600</v>
       </c>
@@ -11974,7 +12157,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="129.6">
       <c r="A121" t="s">
         <v>1609</v>
       </c>
@@ -12114,11 +12297,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3406EAE6-AF15-4D1E-98A8-E5C897CCC6B3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -12128,7 +12311,7 @@
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -12177,14 +12360,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA677A31-BFDB-4918-85B5-8969848E6951}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6">
+      <c r="A2" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.8">
+      <c r="A4" s="10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="129.6">
+      <c r="A5" s="10" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3BBAAE2F-00CA-482C-8348-3C65D7D4CDAE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{A4D88B40-A3E4-4888-98B8-EDB6400D8731}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F2729311-BC40-48D6-BB0F-71F01A86B229}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3B2F9C-C2FA-44A4-BAAE-765892C61CE4}">
   <dimension ref="A1:H375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G374" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="H375" sqref="H375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -12196,7 +12484,7 @@
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -12222,7 +12510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="72">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -12248,7 +12536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12274,7 +12562,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="43.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -12326,7 +12614,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="57.6">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -12352,7 +12640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="57.6">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -12378,7 +12666,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="57.6">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -12404,7 +12692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57.6">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12718,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="184.8">
       <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
@@ -12456,7 +12744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
@@ -12482,7 +12770,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="39.6">
       <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
@@ -12508,7 +12796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="26.4">
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
@@ -12534,7 +12822,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="39.6">
       <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
@@ -12560,7 +12848,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -12586,7 +12874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -12612,7 +12900,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="52.8">
       <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
@@ -12638,7 +12926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="26.4">
       <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
@@ -12664,7 +12952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="52.8">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -12690,7 +12978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="57.6">
       <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
@@ -12716,7 +13004,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="144">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -12742,7 +13030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="144">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -12768,7 +13056,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -12794,7 +13082,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -12820,7 +13108,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -12846,7 +13134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="28.8">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -12872,7 +13160,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="172.8">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -12898,7 +13186,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -12924,7 +13212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -12950,7 +13238,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.8">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -12976,7 +13264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -13002,7 +13290,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="43.2">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -13026,7 +13314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="1" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>68</v>
       </c>
@@ -13052,7 +13340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="57.6">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -13076,7 +13364,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="1" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>72</v>
       </c>
@@ -13102,7 +13390,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="72">
       <c r="A36" s="1" t="s">
         <v>186</v>
       </c>
@@ -13128,7 +13416,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="28.8">
       <c r="A37" s="8" t="s">
         <v>186</v>
       </c>
@@ -13154,7 +13442,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="79.2">
       <c r="A38" s="8" t="s">
         <v>134</v>
       </c>
@@ -13180,7 +13468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="39.6">
       <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
@@ -13206,7 +13494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26.4">
       <c r="A40" s="2" t="s">
         <v>151</v>
       </c>
@@ -13232,7 +13520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26.4">
       <c r="A41" s="2" t="s">
         <v>151</v>
       </c>
@@ -13258,7 +13546,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="409.6">
       <c r="A42" s="2" t="s">
         <v>141</v>
       </c>
@@ -13284,7 +13572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="43.2">
       <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
@@ -13310,7 +13598,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="43.2">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
@@ -13336,7 +13624,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="52.8">
       <c r="A45" s="8" t="s">
         <v>156</v>
       </c>
@@ -13362,7 +13650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="39.6">
       <c r="A46" s="8" t="s">
         <v>156</v>
       </c>
@@ -13388,7 +13676,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="66">
       <c r="A47" s="2" t="s">
         <v>202</v>
       </c>
@@ -13414,7 +13702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
         <v>202</v>
       </c>
@@ -13440,7 +13728,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
         <v>202</v>
       </c>
@@ -13466,7 +13754,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="79.2">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -13492,7 +13780,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
         <v>197</v>
       </c>
@@ -13518,7 +13806,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="132">
       <c r="A52" s="1" t="s">
         <v>204</v>
       </c>
@@ -13544,7 +13832,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
         <v>204</v>
       </c>
@@ -13570,7 +13858,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="409.6">
       <c r="A54" s="2" t="s">
         <v>209</v>
       </c>
@@ -13596,7 +13884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
         <v>209</v>
       </c>
@@ -13622,7 +13910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>216</v>
       </c>
@@ -13648,7 +13936,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="66">
       <c r="A57" s="2" t="s">
         <v>216</v>
       </c>
@@ -13674,7 +13962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="211.2">
       <c r="A58" s="2" t="s">
         <v>225</v>
       </c>
@@ -13700,7 +13988,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="26.4">
       <c r="A59" s="8" t="s">
         <v>907</v>
       </c>
@@ -13726,7 +14014,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="211.2">
       <c r="A60" s="8" t="s">
         <v>907</v>
       </c>
@@ -13752,7 +14040,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="26.4">
       <c r="A61" s="8" t="s">
         <v>907</v>
       </c>
@@ -13778,7 +14066,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="211.2">
       <c r="A62" s="2" t="s">
         <v>232</v>
       </c>
@@ -13804,7 +14092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="26.4">
       <c r="A63" s="2" t="s">
         <v>232</v>
       </c>
@@ -13830,7 +14118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="26.4">
       <c r="A64" s="2" t="s">
         <v>232</v>
       </c>
@@ -13856,7 +14144,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="26.4">
       <c r="A65" s="2" t="s">
         <v>232</v>
       </c>
@@ -13882,7 +14170,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="26.4">
       <c r="A66" s="2" t="s">
         <v>232</v>
       </c>
@@ -13908,7 +14196,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="26.4">
       <c r="A67" s="2" t="s">
         <v>232</v>
       </c>
@@ -13934,7 +14222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="315" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="277.2">
       <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
@@ -13960,7 +14248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
         <v>241</v>
       </c>
@@ -13986,7 +14274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
         <v>241</v>
       </c>
@@ -14012,7 +14300,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="409.6">
       <c r="A71" s="2" t="s">
         <v>244</v>
       </c>
@@ -14038,7 +14326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
         <v>244</v>
       </c>
@@ -14064,7 +14352,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="79.2">
       <c r="A73" s="2" t="s">
         <v>250</v>
       </c>
@@ -14090,7 +14378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
         <v>250</v>
       </c>
@@ -14116,7 +14404,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
         <v>250</v>
       </c>
@@ -14142,7 +14430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="92.4">
       <c r="A76" s="2" t="s">
         <v>257</v>
       </c>
@@ -14166,7 +14454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="132">
       <c r="A77" s="2" t="s">
         <v>261</v>
       </c>
@@ -14190,7 +14478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="79.2">
       <c r="A78" s="2" t="s">
         <v>269</v>
       </c>
@@ -14216,7 +14504,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="8" t="s">
         <v>269</v>
       </c>
@@ -14242,7 +14530,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="255" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="224.4">
       <c r="A80" s="2" t="s">
         <v>274</v>
       </c>
@@ -14268,7 +14556,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="26.4">
       <c r="A81" s="2" t="s">
         <v>274</v>
       </c>
@@ -14294,7 +14582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="26.4">
       <c r="A82" s="2" t="s">
         <v>274</v>
       </c>
@@ -14320,7 +14608,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="26.4">
       <c r="A83" s="2" t="s">
         <v>274</v>
       </c>
@@ -14346,7 +14634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="270" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="237.6">
       <c r="A84" s="2" t="s">
         <v>280</v>
       </c>
@@ -14372,7 +14660,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="26.4">
       <c r="A85" s="2" t="s">
         <v>280</v>
       </c>
@@ -14398,7 +14686,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="26.4">
       <c r="A86" s="2" t="s">
         <v>280</v>
       </c>
@@ -14424,7 +14712,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="26.4">
       <c r="A87" s="2" t="s">
         <v>280</v>
       </c>
@@ -14450,7 +14738,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="39.6">
       <c r="A88" s="2" t="s">
         <v>280</v>
       </c>
@@ -14476,7 +14764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="26.4">
       <c r="A89" s="2" t="s">
         <v>280</v>
       </c>
@@ -14502,7 +14790,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="26.4">
       <c r="A90" s="2" t="s">
         <v>280</v>
       </c>
@@ -14528,7 +14816,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="316.8">
       <c r="A91" s="2" t="s">
         <v>288</v>
       </c>
@@ -14554,7 +14842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="8" t="s">
         <v>288</v>
       </c>
@@ -14580,7 +14868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="8" t="s">
         <v>288</v>
       </c>
@@ -14606,7 +14894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="8" t="s">
         <v>288</v>
       </c>
@@ -14632,7 +14920,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="8" t="s">
         <v>288</v>
       </c>
@@ -14658,7 +14946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
         <v>288</v>
       </c>
@@ -14684,7 +14972,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="409.6">
       <c r="A97" s="2" t="s">
         <v>292</v>
       </c>
@@ -14710,7 +14998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="8" t="s">
         <v>292</v>
       </c>
@@ -14736,7 +15024,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="66">
       <c r="A99" s="2" t="s">
         <v>300</v>
       </c>
@@ -14762,7 +15050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="8" t="s">
         <v>300</v>
       </c>
@@ -14788,7 +15076,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="8" t="s">
         <v>300</v>
       </c>
@@ -14814,7 +15102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="330" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="290.39999999999998">
       <c r="A102" s="2" t="s">
         <v>306</v>
       </c>
@@ -14838,7 +15126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="52.8">
       <c r="A103" s="2" t="s">
         <v>309</v>
       </c>
@@ -14864,7 +15152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="8" t="s">
         <v>309</v>
       </c>
@@ -14890,7 +15178,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="330" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="290.39999999999998">
       <c r="A105" s="2" t="s">
         <v>319</v>
       </c>
@@ -14914,7 +15202,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="230.4">
       <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
@@ -14940,7 +15228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="39.6">
       <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
@@ -14966,7 +15254,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="39.6">
       <c r="A108" s="1" t="s">
         <v>100</v>
       </c>
@@ -14992,7 +15280,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="39.6">
       <c r="A109" s="1" t="s">
         <v>100</v>
       </c>
@@ -15018,7 +15306,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="26.4">
       <c r="A110" s="1" t="s">
         <v>100</v>
       </c>
@@ -15044,7 +15332,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="66">
       <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
@@ -15070,7 +15358,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="26.4">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
@@ -15096,7 +15384,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="409.6">
       <c r="A113" s="1" t="s">
         <v>323</v>
       </c>
@@ -15122,7 +15410,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="26.4">
       <c r="A114" s="1" t="s">
         <v>323</v>
       </c>
@@ -15148,7 +15436,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="26.4">
       <c r="A115" s="1" t="s">
         <v>323</v>
       </c>
@@ -15174,7 +15462,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="26.4">
       <c r="A116" s="1" t="s">
         <v>323</v>
       </c>
@@ -15200,7 +15488,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="72">
       <c r="A117" s="1" t="s">
         <v>331</v>
       </c>
@@ -15224,7 +15512,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>331</v>
       </c>
@@ -15250,7 +15538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>331</v>
       </c>
@@ -15276,7 +15564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>331</v>
       </c>
@@ -15302,7 +15590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="43.2">
       <c r="A121" s="1" t="s">
         <v>327</v>
       </c>
@@ -15326,7 +15614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>327</v>
       </c>
@@ -15352,7 +15640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>327</v>
       </c>
@@ -15378,7 +15666,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="28.8">
       <c r="A124" s="1" t="s">
         <v>327</v>
       </c>
@@ -15404,7 +15692,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="28.8">
       <c r="A125" s="1" t="s">
         <v>327</v>
       </c>
@@ -15430,7 +15718,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="86.4">
       <c r="A126" s="1" t="s">
         <v>335</v>
       </c>
@@ -15456,7 +15744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="8" t="s">
         <v>335</v>
       </c>
@@ -15482,7 +15770,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="8" t="s">
         <v>335</v>
       </c>
@@ -15508,7 +15796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="8" t="s">
         <v>335</v>
       </c>
@@ -15534,7 +15822,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="409.6">
       <c r="A130" s="1" t="s">
         <v>349</v>
       </c>
@@ -15560,7 +15848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="8" t="s">
         <v>349</v>
       </c>
@@ -15586,7 +15874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="409.6">
       <c r="A132" s="1" t="s">
         <v>356</v>
       </c>
@@ -15612,7 +15900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="115.2">
       <c r="A133" s="1" t="s">
         <v>356</v>
       </c>
@@ -15638,7 +15926,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="115.2">
       <c r="A134" s="1" t="s">
         <v>356</v>
       </c>
@@ -15664,7 +15952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="86.4">
       <c r="A135" s="1" t="s">
         <v>359</v>
       </c>
@@ -15690,7 +15978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="8" t="s">
         <v>359</v>
       </c>
@@ -15716,7 +16004,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="316.8">
       <c r="A137" s="1" t="s">
         <v>367</v>
       </c>
@@ -15742,7 +16030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="8" t="s">
         <v>367</v>
       </c>
@@ -15768,7 +16056,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="172.8">
       <c r="A139" s="1" t="s">
         <v>399</v>
       </c>
@@ -15794,7 +16082,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="8" t="s">
         <v>399</v>
       </c>
@@ -15820,7 +16108,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>378</v>
       </c>
@@ -15842,7 +16130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>382</v>
       </c>
@@ -15864,7 +16152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>386</v>
       </c>
@@ -15884,7 +16172,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="409.6">
       <c r="A144" s="1" t="s">
         <v>388</v>
       </c>
@@ -15910,7 +16198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="8" t="s">
         <v>388</v>
       </c>
@@ -15936,7 +16224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="129.6">
       <c r="A146" s="8" t="s">
         <v>388</v>
       </c>
@@ -15962,7 +16250,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>395</v>
       </c>
@@ -15982,7 +16270,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="26.4">
       <c r="A148" s="8" t="s">
         <v>74</v>
       </c>
@@ -16008,7 +16296,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="8" t="s">
         <v>74</v>
       </c>
@@ -16034,7 +16322,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="72">
       <c r="A150" s="1" t="s">
         <v>407</v>
       </c>
@@ -16057,7 +16345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="8" t="s">
         <v>407</v>
       </c>
@@ -16083,7 +16371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="8" t="s">
         <v>407</v>
       </c>
@@ -16109,7 +16397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="8" t="s">
         <v>407</v>
       </c>
@@ -16135,7 +16423,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="129.6">
       <c r="A154" s="1" t="s">
         <v>412</v>
       </c>
@@ -16161,7 +16449,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="92.4">
       <c r="A155" s="8" t="s">
         <v>412</v>
       </c>
@@ -16187,7 +16475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="8" t="s">
         <v>412</v>
       </c>
@@ -16213,7 +16501,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="8" t="s">
         <v>412</v>
       </c>
@@ -16239,7 +16527,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="8" t="s">
         <v>412</v>
       </c>
@@ -16265,7 +16553,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="8" t="s">
         <v>412</v>
       </c>
@@ -16291,7 +16579,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="26.4">
       <c r="A160" s="8" t="s">
         <v>412</v>
       </c>
@@ -16317,7 +16605,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="273.60000000000002">
       <c r="A161" s="1" t="s">
         <v>421</v>
       </c>
@@ -16343,7 +16631,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="8" t="s">
         <v>421</v>
       </c>
@@ -16369,7 +16657,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="8" t="s">
         <v>421</v>
       </c>
@@ -16395,7 +16683,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="273.60000000000002">
       <c r="A164" s="1" t="s">
         <v>421</v>
       </c>
@@ -16418,7 +16706,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="316.8">
       <c r="A165" s="1" t="s">
         <v>426</v>
       </c>
@@ -16444,7 +16732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="28.8">
       <c r="A166" s="8" t="s">
         <v>426</v>
       </c>
@@ -16470,7 +16758,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="43.2">
       <c r="A167" s="8" t="s">
         <v>426</v>
       </c>
@@ -16496,7 +16784,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="43.2">
       <c r="A168" s="8" t="s">
         <v>426</v>
       </c>
@@ -16522,7 +16810,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="409.6">
       <c r="A169" s="1" t="s">
         <v>430</v>
       </c>
@@ -16548,7 +16836,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="8" t="s">
         <v>430</v>
       </c>
@@ -16574,7 +16862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="8" t="s">
         <v>430</v>
       </c>
@@ -16600,7 +16888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="8" t="s">
         <v>430</v>
       </c>
@@ -16626,7 +16914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="8" t="s">
         <v>430</v>
       </c>
@@ -16652,7 +16940,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="8" t="s">
         <v>430</v>
       </c>
@@ -16678,7 +16966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="8" t="s">
         <v>430</v>
       </c>
@@ -16704,7 +16992,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="144">
       <c r="A176" s="1" t="s">
         <v>438</v>
       </c>
@@ -16727,7 +17015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" ht="115.2">
       <c r="A177" s="1" t="s">
         <v>446</v>
       </c>
@@ -16753,7 +17041,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" ht="115.2">
       <c r="A178" s="8" t="s">
         <v>446</v>
       </c>
@@ -16779,7 +17067,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" ht="115.2">
       <c r="A179" s="8" t="s">
         <v>446</v>
       </c>
@@ -16805,7 +17093,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="144">
       <c r="A180" t="s">
         <v>452</v>
       </c>
@@ -16831,7 +17119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="144">
       <c r="A181" s="8" t="s">
         <v>452</v>
       </c>
@@ -16857,7 +17145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="144">
       <c r="A182" s="8" t="s">
         <v>452</v>
       </c>
@@ -16883,7 +17171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="57.6">
       <c r="A183" t="s">
         <v>457</v>
       </c>
@@ -16906,7 +17194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="8" t="s">
         <v>457</v>
       </c>
@@ -16932,7 +17220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="8" t="s">
         <v>457</v>
       </c>
@@ -16958,7 +17246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="8" t="s">
         <v>457</v>
       </c>
@@ -16984,7 +17272,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="8" t="s">
         <v>457</v>
       </c>
@@ -17010,7 +17298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="43.2">
       <c r="A188" s="1" t="s">
         <v>463</v>
       </c>
@@ -17033,7 +17321,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="8" t="s">
         <v>463</v>
       </c>
@@ -17059,7 +17347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="72">
       <c r="A190" s="1" t="s">
         <v>468</v>
       </c>
@@ -17085,7 +17373,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="8" t="s">
         <v>468</v>
       </c>
@@ -17111,7 +17399,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="8" t="s">
         <v>468</v>
       </c>
@@ -17137,7 +17425,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="100.8">
       <c r="A193" s="1" t="s">
         <v>475</v>
       </c>
@@ -17163,7 +17451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="8" t="s">
         <v>475</v>
       </c>
@@ -17189,7 +17477,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="8" t="s">
         <v>475</v>
       </c>
@@ -17215,7 +17503,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="187.2">
       <c r="A196" s="1" t="s">
         <v>480</v>
       </c>
@@ -17241,7 +17529,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="8" t="s">
         <v>480</v>
       </c>
@@ -17267,7 +17555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="28.8">
       <c r="A198" s="8" t="s">
         <v>480</v>
       </c>
@@ -17293,7 +17581,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="8" t="s">
         <v>480</v>
       </c>
@@ -17319,7 +17607,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="8" t="s">
         <v>480</v>
       </c>
@@ -17345,7 +17633,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="8" t="s">
         <v>480</v>
       </c>
@@ -17371,7 +17659,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="187.2">
       <c r="A202" s="1" t="s">
         <v>486</v>
       </c>
@@ -17397,7 +17685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="28.8">
       <c r="A203" s="8" t="s">
         <v>486</v>
       </c>
@@ -17423,7 +17711,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="8" t="s">
         <v>486</v>
       </c>
@@ -17449,7 +17737,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="28.8">
       <c r="A205" s="8" t="s">
         <v>486</v>
       </c>
@@ -17475,7 +17763,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="8" t="s">
         <v>486</v>
       </c>
@@ -17501,7 +17789,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="8" t="s">
         <v>486</v>
       </c>
@@ -17527,7 +17815,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="8" t="s">
         <v>486</v>
       </c>
@@ -17553,7 +17841,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="187.2">
       <c r="A209" s="1" t="s">
         <v>486</v>
       </c>
@@ -17579,7 +17867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="259.2">
       <c r="A210" s="1" t="s">
         <v>509</v>
       </c>
@@ -17605,7 +17893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="8" t="s">
         <v>509</v>
       </c>
@@ -17631,7 +17919,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="8" t="s">
         <v>509</v>
       </c>
@@ -17657,7 +17945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="409.6">
       <c r="A213" s="1" t="s">
         <v>493</v>
       </c>
@@ -17683,7 +17971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
         <v>493</v>
       </c>
@@ -17709,7 +17997,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="144">
       <c r="A215" s="1" t="s">
         <v>500</v>
       </c>
@@ -17735,7 +18023,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="8" t="s">
         <v>500</v>
       </c>
@@ -17761,7 +18049,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="158.4">
       <c r="A217" s="1" t="s">
         <v>510</v>
       </c>
@@ -17787,7 +18075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="8" t="s">
         <v>510</v>
       </c>
@@ -17813,7 +18101,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="8" t="s">
         <v>510</v>
       </c>
@@ -17839,7 +18127,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="8" t="s">
         <v>510</v>
       </c>
@@ -17865,7 +18153,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="8" t="s">
         <v>510</v>
       </c>
@@ -17891,7 +18179,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="28.8">
       <c r="A222" s="8" t="s">
         <v>510</v>
       </c>
@@ -17917,7 +18205,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="8" t="s">
         <v>510</v>
       </c>
@@ -17943,7 +18231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="8" t="s">
         <v>510</v>
       </c>
@@ -17969,7 +18257,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="8" t="s">
         <v>510</v>
       </c>
@@ -17995,7 +18283,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="172.8">
       <c r="A226" s="1" t="s">
         <v>514</v>
       </c>
@@ -18021,7 +18309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="8" t="s">
         <v>514</v>
       </c>
@@ -18047,7 +18335,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="8" t="s">
         <v>514</v>
       </c>
@@ -18073,7 +18361,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="8" t="s">
         <v>514</v>
       </c>
@@ -18099,7 +18387,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="8" t="s">
         <v>514</v>
       </c>
@@ -18125,7 +18413,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="8" t="s">
         <v>514</v>
       </c>
@@ -18151,7 +18439,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="8" t="s">
         <v>514</v>
       </c>
@@ -18177,7 +18465,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="259.2">
       <c r="A233" s="1" t="s">
         <v>519</v>
       </c>
@@ -18203,7 +18491,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="8" t="s">
         <v>519</v>
       </c>
@@ -18229,7 +18517,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="8" t="s">
         <v>519</v>
       </c>
@@ -18255,7 +18543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="8" t="s">
         <v>519</v>
       </c>
@@ -18281,7 +18569,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="43.2">
       <c r="A237" s="1" t="s">
         <v>524</v>
       </c>
@@ -18301,7 +18589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
         <v>524</v>
       </c>
@@ -18327,7 +18615,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="144">
       <c r="A239" s="1" t="s">
         <v>528</v>
       </c>
@@ -18353,7 +18641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="8" t="s">
         <v>528</v>
       </c>
@@ -18379,7 +18667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="115.2">
       <c r="A241" s="1" t="s">
         <v>539</v>
       </c>
@@ -18405,7 +18693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="8" t="s">
         <v>539</v>
       </c>
@@ -18431,7 +18719,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="8" t="s">
         <v>539</v>
       </c>
@@ -18457,7 +18745,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="8" t="s">
         <v>539</v>
       </c>
@@ -18483,7 +18771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="8" t="s">
         <v>539</v>
       </c>
@@ -18509,7 +18797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="8" t="s">
         <v>539</v>
       </c>
@@ -18535,7 +18823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="129.6">
       <c r="A247" s="1" t="s">
         <v>544</v>
       </c>
@@ -18561,7 +18849,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
         <v>544</v>
       </c>
@@ -18587,7 +18875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
         <v>544</v>
       </c>
@@ -18613,7 +18901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
         <v>544</v>
       </c>
@@ -18639,7 +18927,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
         <v>544</v>
       </c>
@@ -18665,7 +18953,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
         <v>544</v>
       </c>
@@ -18691,7 +18979,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
         <v>544</v>
       </c>
@@ -18717,7 +19005,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="244.8">
       <c r="A254" s="1" t="s">
         <v>569</v>
       </c>
@@ -18743,7 +19031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="8" t="s">
         <v>569</v>
       </c>
@@ -18769,7 +19057,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="8" t="s">
         <v>569</v>
       </c>
@@ -18795,7 +19083,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" s="8" t="s">
         <v>569</v>
       </c>
@@ -18821,7 +19109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="288" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="288">
       <c r="A258" s="1" t="s">
         <v>553</v>
       </c>
@@ -18847,7 +19135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
         <v>553</v>
       </c>
@@ -18873,7 +19161,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="144">
       <c r="A260" s="1" t="s">
         <v>558</v>
       </c>
@@ -18899,7 +19187,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" s="8" t="s">
         <v>558</v>
       </c>
@@ -18925,7 +19213,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="72">
       <c r="A262" s="1" t="s">
         <v>571</v>
       </c>
@@ -18951,7 +19239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" s="8" t="s">
         <v>571</v>
       </c>
@@ -18977,7 +19265,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="57.6">
       <c r="A264" s="8" t="s">
         <v>571</v>
       </c>
@@ -19003,7 +19291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="28.8">
       <c r="A265" s="8" t="s">
         <v>577</v>
       </c>
@@ -19029,7 +19317,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" s="8" t="s">
         <v>577</v>
       </c>
@@ -19055,7 +19343,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="28.8">
       <c r="A267" s="8" t="s">
         <v>577</v>
       </c>
@@ -19081,7 +19369,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="244.8">
       <c r="A268" t="s">
         <v>577</v>
       </c>
@@ -19107,7 +19395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="129.6">
       <c r="A269" s="1" t="s">
         <v>583</v>
       </c>
@@ -19133,7 +19421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="331.2">
       <c r="A270" s="1" t="s">
         <v>589</v>
       </c>
@@ -19159,7 +19447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
         <v>589</v>
       </c>
@@ -19185,7 +19473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" s="8" t="s">
         <v>583</v>
       </c>
@@ -19211,7 +19499,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" s="8" t="s">
         <v>583</v>
       </c>
@@ -19237,7 +19525,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" s="8" t="s">
         <v>583</v>
       </c>
@@ -19263,7 +19551,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="374.4">
       <c r="A275" s="1" t="s">
         <v>594</v>
       </c>
@@ -19289,7 +19577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" s="1" t="s">
         <v>594</v>
       </c>
@@ -19315,7 +19603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="86.4">
       <c r="A277" s="1" t="s">
         <v>600</v>
       </c>
@@ -19341,7 +19629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="115.2">
       <c r="A278" s="1" t="s">
         <v>604</v>
       </c>
@@ -19367,7 +19655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
         <v>604</v>
       </c>
@@ -19393,7 +19681,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="259.2">
       <c r="A280" s="1" t="s">
         <v>614</v>
       </c>
@@ -19419,7 +19707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" s="8" t="s">
         <v>614</v>
       </c>
@@ -19445,7 +19733,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" s="8" t="s">
         <v>614</v>
       </c>
@@ -19471,7 +19759,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" s="8" t="s">
         <v>614</v>
       </c>
@@ -19497,7 +19785,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="129.6">
       <c r="A284" t="s">
         <v>620</v>
       </c>
@@ -19520,7 +19808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" s="8" t="s">
         <v>620</v>
       </c>
@@ -19546,7 +19834,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" s="8" t="s">
         <v>620</v>
       </c>
@@ -19572,7 +19860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" s="8" t="s">
         <v>620</v>
       </c>
@@ -19598,7 +19886,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" s="8" t="s">
         <v>620</v>
       </c>
@@ -19624,7 +19912,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="100.8">
       <c r="A289" s="1" t="s">
         <v>625</v>
       </c>
@@ -19650,7 +19938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" s="8" t="s">
         <v>625</v>
       </c>
@@ -19676,7 +19964,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" s="8" t="s">
         <v>625</v>
       </c>
@@ -19702,7 +19990,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="100.8">
       <c r="A292" s="1" t="s">
         <v>631</v>
       </c>
@@ -19728,7 +20016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="100.8">
       <c r="A293" s="8" t="s">
         <v>631</v>
       </c>
@@ -19754,7 +20042,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="100.8">
       <c r="A294" s="8" t="s">
         <v>631</v>
       </c>
@@ -19780,7 +20068,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="72">
       <c r="A295" t="s">
         <v>637</v>
       </c>
@@ -19806,7 +20094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" s="8" t="s">
         <v>637</v>
       </c>
@@ -19832,7 +20120,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" s="8" t="s">
         <v>637</v>
       </c>
@@ -19858,7 +20146,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="57.6">
       <c r="A298" s="1" t="s">
         <v>643</v>
       </c>
@@ -19884,7 +20172,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" s="8" t="s">
         <v>643</v>
       </c>
@@ -19910,7 +20198,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" s="8" t="s">
         <v>643</v>
       </c>
@@ -19936,7 +20224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="273.60000000000002">
       <c r="A301" s="1" t="s">
         <v>652</v>
       </c>
@@ -19962,7 +20250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="39.6">
       <c r="A302" s="1" t="s">
         <v>652</v>
       </c>
@@ -19988,7 +20276,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="409.6">
       <c r="A303" s="1" t="s">
         <v>658</v>
       </c>
@@ -20014,7 +20302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" s="8" t="s">
         <v>658</v>
       </c>
@@ -20040,7 +20328,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" s="8" t="s">
         <v>658</v>
       </c>
@@ -20066,7 +20354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="43.2">
       <c r="A306" s="1" t="s">
         <v>708</v>
       </c>
@@ -20090,7 +20378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" s="1" t="s">
         <v>708</v>
       </c>
@@ -20116,7 +20404,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" s="1" t="s">
         <v>668</v>
       </c>
@@ -20136,7 +20424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="100.8">
       <c r="A309" s="1" t="s">
         <v>671</v>
       </c>
@@ -20162,7 +20450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="100.8">
       <c r="A310" s="8" t="s">
         <v>671</v>
       </c>
@@ -20188,7 +20476,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="100.8">
       <c r="A311" s="8" t="s">
         <v>671</v>
       </c>
@@ -20214,7 +20502,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="100.8">
       <c r="A312" s="8" t="s">
         <v>671</v>
       </c>
@@ -20240,7 +20528,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8">
       <c r="A313" s="8" t="s">
         <v>671</v>
       </c>
@@ -20266,7 +20554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="43.2">
       <c r="A314" s="1" t="s">
         <v>679</v>
       </c>
@@ -20289,7 +20577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8">
       <c r="A315" s="1" t="s">
         <v>679</v>
       </c>
@@ -20315,7 +20603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="43.2">
       <c r="A316" s="1" t="s">
         <v>683</v>
       </c>
@@ -20338,7 +20626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="39.6">
       <c r="A317" s="1" t="s">
         <v>683</v>
       </c>
@@ -20364,7 +20652,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="72">
       <c r="A318" s="1" t="s">
         <v>687</v>
       </c>
@@ -20387,7 +20675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="72">
       <c r="A319" s="1" t="s">
         <v>687</v>
       </c>
@@ -20410,7 +20698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="57.6">
       <c r="A320" s="1" t="s">
         <v>692</v>
       </c>
@@ -20433,7 +20721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="57.6">
       <c r="A321" s="8" t="s">
         <v>692</v>
       </c>
@@ -20459,7 +20747,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="43.2">
       <c r="A322" s="1" t="s">
         <v>697</v>
       </c>
@@ -20482,7 +20770,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="43.2">
       <c r="A323" s="1" t="s">
         <v>697</v>
       </c>
@@ -20508,7 +20796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="100.8">
       <c r="A324" s="1" t="s">
         <v>702</v>
       </c>
@@ -20531,7 +20819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" s="8" t="s">
         <v>702</v>
       </c>
@@ -20557,7 +20845,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" s="8" t="s">
         <v>702</v>
       </c>
@@ -20583,7 +20871,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="360">
       <c r="A327" s="1" t="s">
         <v>732</v>
       </c>
@@ -20606,7 +20894,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="360">
       <c r="A328" s="8" t="s">
         <v>717</v>
       </c>
@@ -20632,7 +20920,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" ht="360">
       <c r="A329" s="8" t="s">
         <v>717</v>
       </c>
@@ -20658,7 +20946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="360">
       <c r="A330" s="8" t="s">
         <v>717</v>
       </c>
@@ -20684,7 +20972,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="345.6">
       <c r="A331" s="1" t="s">
         <v>722</v>
       </c>
@@ -20707,7 +20995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="345.6">
       <c r="A332" t="s">
         <v>725</v>
       </c>
@@ -20730,7 +21018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="345.6">
       <c r="A333" s="1" t="s">
         <v>728</v>
       </c>
@@ -20750,7 +21038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="345.6">
       <c r="A334" t="s">
         <v>735</v>
       </c>
@@ -20770,7 +21058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="360">
       <c r="A335" s="1" t="s">
         <v>741</v>
       </c>
@@ -20793,7 +21081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="345.6">
       <c r="A336" t="s">
         <v>754</v>
       </c>
@@ -20816,7 +21104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="345.6">
       <c r="A337" s="1" t="s">
         <v>744</v>
       </c>
@@ -20836,7 +21124,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="345.6">
       <c r="A338" t="s">
         <v>747</v>
       </c>
@@ -20859,7 +21147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="345.6">
       <c r="A339" s="1" t="s">
         <v>755</v>
       </c>
@@ -20882,7 +21170,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="360">
       <c r="A340" s="8" t="s">
         <v>752</v>
       </c>
@@ -20908,7 +21196,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="360">
       <c r="A341" s="8" t="s">
         <v>752</v>
       </c>
@@ -20934,7 +21222,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="342" spans="1:8" s="1" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" s="1" customFormat="1" ht="388.8">
       <c r="A342" s="1" t="s">
         <v>761</v>
       </c>
@@ -20960,7 +21248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" s="1" customFormat="1">
       <c r="A343" s="8" t="s">
         <v>761</v>
       </c>
@@ -20986,7 +21274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" s="1" customFormat="1">
       <c r="A344" s="8" t="s">
         <v>761</v>
       </c>
@@ -21012,7 +21300,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="43.2">
       <c r="A345" s="1" t="s">
         <v>768</v>
       </c>
@@ -21035,7 +21323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="43.2">
       <c r="A346" s="1" t="s">
         <v>768</v>
       </c>
@@ -21061,7 +21349,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="72">
       <c r="A347" s="1" t="s">
         <v>772</v>
       </c>
@@ -21084,7 +21372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="72">
       <c r="A348" s="1" t="s">
         <v>772</v>
       </c>
@@ -21107,7 +21395,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="72">
       <c r="A349" s="1" t="s">
         <v>772</v>
       </c>
@@ -21130,7 +21418,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8">
       <c r="A350" s="1" t="s">
         <v>776</v>
       </c>
@@ -21150,7 +21438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="158.4">
       <c r="A351" s="1" t="s">
         <v>781</v>
       </c>
@@ -21176,7 +21464,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="57.6">
       <c r="A352" s="1" t="s">
         <v>781</v>
       </c>
@@ -21202,7 +21490,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" s="1" t="s">
         <v>787</v>
       </c>
@@ -21222,7 +21510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="230.4">
       <c r="A354" s="1" t="s">
         <v>791</v>
       </c>
@@ -21248,7 +21536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="43.2">
       <c r="A355" s="1" t="s">
         <v>791</v>
       </c>
@@ -21274,7 +21562,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="43.2">
       <c r="A356" s="1" t="s">
         <v>806</v>
       </c>
@@ -21297,7 +21585,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="43.2">
       <c r="A357" s="1" t="s">
         <v>806</v>
       </c>
@@ -21320,7 +21608,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="72">
       <c r="A358" s="1" t="s">
         <v>811</v>
       </c>
@@ -21343,7 +21631,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="72">
       <c r="A359" s="1" t="s">
         <v>811</v>
       </c>
@@ -21366,7 +21654,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" s="1" t="s">
         <v>814</v>
       </c>
@@ -21386,7 +21674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="72">
       <c r="A361" s="1" t="s">
         <v>818</v>
       </c>
@@ -21406,7 +21694,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="43.2">
       <c r="A362" s="1" t="s">
         <v>824</v>
       </c>
@@ -21429,7 +21717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="43.2">
       <c r="A363" s="1" t="s">
         <v>824</v>
       </c>
@@ -21452,7 +21740,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="86.4">
       <c r="A364" t="s">
         <v>829</v>
       </c>
@@ -21475,7 +21763,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="43.2">
       <c r="A365" s="1" t="s">
         <v>834</v>
       </c>
@@ -21498,7 +21786,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="43.2">
       <c r="A366" s="1" t="s">
         <v>834</v>
       </c>
@@ -21521,7 +21809,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="100.8">
       <c r="A367" t="s">
         <v>1583</v>
       </c>
@@ -21547,7 +21835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="100.8">
       <c r="A368" s="1" t="s">
         <v>1583</v>
       </c>
@@ -21573,7 +21861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="100.8">
       <c r="A369" s="1" t="s">
         <v>1583</v>
       </c>
@@ -21599,7 +21887,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="230.4">
       <c r="A370" s="1" t="s">
         <v>1600</v>
       </c>
@@ -21625,7 +21913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="43.2">
       <c r="A371" s="1" t="s">
         <v>1600</v>
       </c>
@@ -21651,7 +21939,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="129.6">
       <c r="A372" s="1" t="s">
         <v>1609</v>
       </c>
@@ -21677,7 +21965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="57.6">
       <c r="A373" s="1" t="s">
         <v>1609</v>
       </c>
@@ -21703,7 +21991,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="57.6">
       <c r="A374" s="1" t="s">
         <v>1609</v>
       </c>
@@ -21729,7 +22017,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="G375" s="10" t="s">
         <v>1026</v>
       </c>
@@ -21748,29 +22036,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE5707-04AB-43CC-860B-DD41FE24C5CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6">
+      <c r="A2" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8">
+      <c r="A3" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H3" s="8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2">
+      <c r="A4" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H4" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8">
+      <c r="A5" s="8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8">
+      <c r="A6" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H6" s="8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6">
+      <c r="A7" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H7" s="8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F81ACA-A641-4517-A8C8-EB975F0E47F5}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -21782,7 +22295,7 @@
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -21808,7 +22321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -21834,7 +22347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -21844,7 +22357,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -21854,7 +22367,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -21864,7 +22377,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -21874,7 +22387,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -21884,7 +22397,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
